--- a/_manuscript/data/harpur-lang.xlsx
+++ b/_manuscript/data/harpur-lang.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/falk/github/articles/harpur-dunlop-wulatji/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4332F896-8DFA-174E-AB01-E928E5DCC59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4433BC96-8610-F04D-A2B7-7F24647B1F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{FC4BB2E0-FBC5-FD45-B13A-126658919CD1}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>whirring</t>
   </si>
   <si>
-    <t>jimbuck</t>
-  </si>
-  <si>
     <t>?grey box</t>
   </si>
   <si>
@@ -253,6 +250,9 @@
   </si>
   <si>
     <t>gugurrgaagaa</t>
+  </si>
+  <si>
+    <t>jimbuc</t>
   </si>
 </sst>
 </file>
@@ -623,7 +623,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,19 +645,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -665,19 +665,19 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -685,19 +685,19 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -705,19 +705,19 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.2">
@@ -725,19 +725,19 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -745,16 +745,16 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
@@ -762,19 +762,19 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -782,19 +782,19 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -802,16 +802,16 @@
         <v>9</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -819,13 +819,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -833,33 +833,33 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -867,22 +867,22 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
